--- a/bots/crawl_ch/output/toilet_coop_2022-08-30.xlsx
+++ b/bots/crawl_ch/output/toilet_coop_2022-08-30.xlsx
@@ -531,36 +531,36 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-30 07:12:23</t>
+          <t>2022-08-30 21:00:48</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6695141</t>
+          <t>4947421</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prix Garantie feuchtes Toilettenpapier 2x70 Stück</t>
+          <t>Oecoplan Taschentuch Calendula Box</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/prix-garantie-feuchtes-toilettenpapier-2x70-stueck/p/6695141</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/oecoplan-taschentuch-calendula-box/p/4947421</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>140ST</t>
+          <t>80ST</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -569,12 +569,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.02/1ST</t>
+          <t>0.03/1ST</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -584,7 +584,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -594,17 +594,17 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Prix Garantie feuchtes Toilettenpapier 2x70 Stück 2.50 Schweizer Franken</t>
+          <t>Oecoplan Taschentuch Calendula Box 2.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-30 07:12:23</t>
+          <t>2022-08-30 21:00:48</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-30 07:12:23</t>
+          <t>2022-08-30 21:00:48</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-30 07:12:23</t>
+          <t>2022-08-30 21:00:48</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-30 07:12:23</t>
+          <t>2022-08-30 21:00:48</t>
         </is>
       </c>
     </row>
@@ -894,7 +894,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-30 07:12:23</t>
+          <t>2022-08-30 21:00:48</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-30 07:12:23</t>
+          <t>2022-08-30 21:00:48</t>
         </is>
       </c>
     </row>
@@ -1008,7 +1008,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-30 07:12:23</t>
+          <t>2022-08-30 21:00:48</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-30 07:12:23</t>
+          <t>2022-08-30 21:00:48</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-30 07:12:23</t>
+          <t>2022-08-30 21:00:48</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-30 07:12:23</t>
+          <t>2022-08-30 21:00:48</t>
         </is>
       </c>
     </row>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-30 07:12:23</t>
+          <t>2022-08-30 21:00:48</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-30 07:12:23</t>
+          <t>2022-08-30 21:00:48</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-30 07:12:23</t>
+          <t>2022-08-30 21:00:48</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-30 07:12:23</t>
+          <t>2022-08-30 21:00:48</t>
         </is>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-30 07:12:23</t>
+          <t>2022-08-30 21:00:48</t>
         </is>
       </c>
     </row>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-30 07:12:23</t>
+          <t>2022-08-30 21:00:48</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-30 07:12:23</t>
+          <t>2022-08-30 21:00:48</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-30 07:12:23</t>
+          <t>2022-08-30 21:00:48</t>
         </is>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-30 07:12:23</t>
+          <t>2022-08-30 21:00:48</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-30 07:12:23</t>
+          <t>2022-08-30 21:00:48</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-30 07:12:23</t>
+          <t>2022-08-30 21:00:48</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-30 07:12:23</t>
+          <t>2022-08-30 21:00:48</t>
         </is>
       </c>
     </row>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-30 07:12:23</t>
+          <t>2022-08-30 21:00:48</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-30 07:12:23</t>
+          <t>2022-08-30 21:00:48</t>
         </is>
       </c>
     </row>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-30 07:12:23</t>
+          <t>2022-08-30 21:00:48</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-30 07:12:23</t>
+          <t>2022-08-30 21:00:48</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-30 07:12:23</t>
+          <t>2022-08-30 21:00:48</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-30 07:12:23</t>
+          <t>2022-08-30 21:00:48</t>
         </is>
       </c>
     </row>
@@ -2540,7 +2540,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-30 07:12:23</t>
+          <t>2022-08-30 21:00:48</t>
         </is>
       </c>
     </row>
